--- a/data/mammalian_isotopes_all.xlsx
+++ b/data/mammalian_isotopes_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdyeakel/Dropbox/PostDoc/2024_PredSizeDiet/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdyeakel/Dropbox/PostDoc/2024_PredSizeDiet/PredSizeDiet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B15945-7533-C442-B22E-974FAA571CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9452C32-805B-C346-8163-749E97603A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="780" windowWidth="26620" windowHeight="27080" xr2:uid="{07FAA451-DEB5-A341-82EA-05437DD0C02B}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="26620" windowHeight="22540" xr2:uid="{07FAA451-DEB5-A341-82EA-05437DD0C02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A367555-EFCF-FA43-B672-4CA46EE19C50}">
   <dimension ref="A1:L806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" topLeftCell="A774" workbookViewId="0">
+      <selection activeCell="B810" sqref="B810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23157,5 +23157,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>